--- a/code.xlsx
+++ b/code.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishikawayoshihito/Library/Mobile Documents/com~apple~CloudDocs/業績/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishikawayoshihito/Desktop/work/github/financial_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E848E4C-955E-B740-88BF-336A39029FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2142AA85-1A76-F244-9552-CA072775E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{F04ACF2E-9AB6-0546-A430-8287638AAF8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>銘柄コード</t>
     <rPh sb="0" eb="2">
@@ -184,6 +184,26 @@
   </si>
   <si>
     <t>エフピコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均給料</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘイキン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非総合職</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">ソウゴウショク </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DC17B2-B963-954C-B295-040CB181A7F7}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -579,180 +599,261 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>3402</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3405</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3407</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4004</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4005</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4021</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4042</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4063</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>886</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>4088</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>4091</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>4183</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>4185</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>823</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>4188</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>4204</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>913</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>4272</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>749</v>
+      </c>
+      <c r="D16">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>4403</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>4612</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>4613</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>4631</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>6988</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>7947</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
+      </c>
+      <c r="C22">
+        <v>802</v>
       </c>
     </row>
   </sheetData>

--- a/code.xlsx
+++ b/code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishikawayoshihito/Desktop/work/github/financial_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2142AA85-1A76-F244-9552-CA072775E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AEF174-5567-7341-9CE1-F5103C00E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{F04ACF2E-9AB6-0546-A430-8287638AAF8F}"/>
   </bookViews>
@@ -187,22 +187,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平均給料</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヘイキン </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">キュウリョウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非総合職</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">ヒ </t>
     </rPh>
     <rPh sb="1" eb="4">
       <t xml:space="preserve">ソウゴウショク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均給料(就職四季報)</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘイキン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">キュウリョウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">シュウショク </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">シキホウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -591,7 +597,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -607,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -784,9 +790,6 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>749</v>
-      </c>
-      <c r="D16">
         <v>749</v>
       </c>
     </row>
